--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -602,10 +602,27 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -1681,12 +1698,6 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>practitioner-qualification</t>
   </si>
   <si>
@@ -1698,10 +1709,6 @@
   </si>
   <si>
     <t>An extension to add status and whereValid elements to a practitioner’s qualifications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -2189,7 +2196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4045,14 +4052,12 @@
         <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4089,19 +4094,17 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4119,7 +4122,7 @@
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -4128,13 +4131,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4144,29 +4149,25 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4223,7 +4224,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>115</v>
@@ -4232,7 +4233,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -4247,38 +4248,38 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4315,17 +4316,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4337,24 +4340,24 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4362,31 +4365,35 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4422,59 +4429,57 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4486,17 +4491,15 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4533,31 +4536,31 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4574,43 +4577,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4634,60 +4635,60 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4701,28 +4702,28 @@
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4747,13 +4748,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4771,7 +4772,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4786,10 +4787,10 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4800,7 +4801,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4808,7 +4809,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -4823,19 +4824,19 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4848,7 +4849,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -4860,13 +4861,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4884,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4899,13 +4900,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4913,7 +4914,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4936,18 +4937,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4995,7 +4998,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5010,21 +5013,21 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5032,13 +5035,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5047,15 +5050,17 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5068,7 +5073,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5104,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5119,13 +5124,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5133,7 +5138,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5156,17 +5161,15 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5215,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5230,25 +5233,23 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5269,18 +5270,18 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5289,52 +5290,52 @@
         <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5343,29 +5344,31 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5380,32 +5383,28 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="S29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5443,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5458,21 +5457,21 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5483,7 +5482,7 @@
         <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5495,30 +5494,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5556,13 +5557,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5571,21 +5572,21 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5593,31 +5594,35 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5665,28 +5670,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5694,18 +5699,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5717,17 +5722,15 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5764,31 +5767,31 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5805,43 +5808,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5865,60 +5866,60 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5932,28 +5933,28 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5978,13 +5979,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6002,7 +6003,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6017,13 +6018,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6031,15 +6032,15 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6057,15 +6058,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6128,13 +6131,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6142,18 +6145,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6168,13 +6171,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6224,13 +6227,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6239,25 +6242,25 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6267,7 +6270,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6279,12 +6282,14 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6333,7 +6338,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6348,13 +6353,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6362,7 +6367,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6388,10 +6393,10 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6442,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6457,13 +6462,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6471,7 +6476,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6482,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6494,18 +6499,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6553,13 +6556,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6568,21 +6571,21 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6593,10 +6596,10 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6605,19 +6608,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6666,13 +6667,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6681,21 +6682,21 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>259</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6706,28 +6707,32 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6775,28 +6780,28 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6804,18 +6809,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6827,17 +6832,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6874,31 +6877,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -6915,13 +6918,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6940,15 +6941,17 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6985,16 +6988,16 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>114</v>
@@ -7015,7 +7018,7 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -7026,10 +7029,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>79</v>
@@ -7051,13 +7054,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7137,9 +7140,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7157,16 +7162,16 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7193,13 +7198,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7217,28 +7222,28 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7246,7 +7251,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7269,20 +7274,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7306,13 +7307,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7330,7 +7331,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7339,19 +7340,19 @@
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7359,7 +7360,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7376,25 +7377,25 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7419,13 +7420,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7443,7 +7444,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7458,13 +7459,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7472,7 +7473,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7489,24 +7490,26 @@
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7530,13 +7533,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7554,7 +7557,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7569,13 +7572,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7606,7 +7609,7 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>398</v>
@@ -7614,7 +7617,9 @@
       <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7663,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7678,21 +7683,21 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7703,10 +7708,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7715,7 +7720,7 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>403</v>
@@ -7723,12 +7728,8 @@
       <c r="L50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7776,13 +7777,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7791,21 +7792,21 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7816,28 +7817,32 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7885,28 +7890,28 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7914,18 +7919,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7937,17 +7942,15 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7984,31 +7987,31 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8023,25 +8026,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8050,16 +8051,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>413</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>109</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8097,16 +8098,16 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>114</v>
@@ -8127,7 +8128,7 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8136,11 +8137,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8152,29 +8155,27 @@
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>421</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>79</v>
@@ -8198,13 +8199,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8222,28 +8223,28 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8251,7 +8252,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8268,7 +8269,7 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
@@ -8277,15 +8278,17 @@
         <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8312,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8333,7 +8336,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8348,13 +8351,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8362,7 +8365,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8385,20 +8388,18 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8422,13 +8423,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8446,7 +8447,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8461,10 +8462,10 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8475,7 +8476,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8486,7 +8487,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8501,13 +8502,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8519,49 +8524,49 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8570,13 +8575,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8584,18 +8589,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8610,10 +8615,10 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8628,7 +8633,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8664,13 +8669,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8679,13 +8684,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8693,11 +8698,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8719,14 +8724,12 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8739,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8775,7 +8778,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8790,13 +8793,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8804,11 +8807,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8830,12 +8833,14 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8848,7 +8853,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8884,7 +8889,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8899,13 +8904,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8913,11 +8918,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8939,10 +8944,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8957,7 +8962,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -8993,7 +8998,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9008,13 +9013,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9022,11 +9027,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9048,14 +9053,12 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9068,7 +9071,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9104,7 +9107,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9119,13 +9122,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9133,7 +9136,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9156,18 +9159,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9215,7 +9218,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9230,13 +9233,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>254</v>
+        <v>499</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9244,7 +9247,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9267,17 +9270,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9290,7 +9293,7 @@
         <v>79</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>79</v>
@@ -9302,13 +9305,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9326,7 +9329,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9341,13 +9344,13 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>509</v>
+        <v>348</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>510</v>
+        <v>259</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9355,7 +9358,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9378,17 +9381,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>512</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9413,13 +9416,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9437,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9452,13 +9455,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9466,7 +9469,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9477,7 +9480,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9486,20 +9489,20 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9548,13 +9551,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9563,21 +9566,21 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9591,7 +9594,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9600,16 +9603,18 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9672,21 +9677,21 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9697,10 +9702,10 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9709,13 +9714,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>532</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>102</v>
+        <v>534</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9766,28 +9771,28 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>103</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9795,7 +9800,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9806,7 +9811,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9818,13 +9823,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>535</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>536</v>
+        <v>102</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9863,35 +9868,37 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
@@ -9900,13 +9907,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9915,10 +9920,10 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -9927,13 +9932,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>538</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>539</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>540</v>
+        <v>189</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9972,16 +9977,14 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>114</v>
@@ -9993,7 +9996,7 @@
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>115</v>
@@ -10011,45 +10014,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C71" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>107</v>
+        <v>541</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>546</v>
+        <v>114</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10106,7 +10107,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>115</v>
@@ -10115,7 +10116,7 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -10124,13 +10125,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10140,26 +10141,28 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>550</v>
+        <v>198</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10208,7 +10211,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10220,13 +10223,13 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>551</v>
+        <v>186</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -10237,7 +10240,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10245,10 +10248,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10260,16 +10263,18 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10293,11 +10298,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10315,13 +10322,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10333,10 +10340,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10344,7 +10351,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10352,7 +10359,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10367,18 +10374,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>560</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10402,13 +10407,11 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10426,10 +10429,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10444,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10455,7 +10458,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10478,16 +10481,18 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10535,7 +10540,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10553,10 +10558,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10564,7 +10569,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10575,7 +10580,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10587,20 +10592,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10624,13 +10625,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10648,13 +10649,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10663,21 +10664,21 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10688,10 +10689,10 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10700,16 +10701,20 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>570</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10733,13 +10738,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -10757,28 +10762,28 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>104</v>
+        <v>575</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -10786,18 +10791,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -10809,17 +10814,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -10856,31 +10859,31 @@
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -10895,25 +10898,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -10922,15 +10923,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>578</v>
+        <v>107</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>579</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -10967,16 +10970,16 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>114</v>
@@ -10997,7 +11000,7 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
@@ -11006,11 +11009,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11019,32 +11024,28 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>141</v>
+        <v>580</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>585</v>
-      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>586</v>
+        <v>114</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11104,13 +11105,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11121,7 +11122,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11132,7 +11133,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11144,19 +11145,19 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11205,13 +11206,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11220,20 +11221,133 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM81">
+  <autoFilter ref="A1:AM82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11243,7 +11357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4131,7 +4131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>187</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4799,7 +4799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -5245,7 +5245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>260</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5469,7 +5469,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>271</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -6254,7 +6254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>320</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6694,7 +6694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>349</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7804,7 +7804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>406</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8137,7 +8137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>416</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -10014,7 +10014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>539</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10238,7 +10238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>549</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10349,7 +10349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>554</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10456,7 +10456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>559</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10676,7 +10676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>569</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11009,7 +11009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>578</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="603">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,6 +623,19 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
+</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -2196,7 +2209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM82"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4244,11 +4257,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4261,26 +4276,22 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>198</v>
       </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4328,7 +4339,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4337,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>115</v>
@@ -4346,7 +4357,7 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4357,42 +4368,42 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4429,17 +4440,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4451,24 +4464,24 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4476,31 +4489,35 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4536,59 +4553,57 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4600,17 +4615,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4647,31 +4660,31 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4688,43 +4701,41 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4748,49 +4759,49 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4801,7 +4812,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4818,25 +4829,25 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4861,13 +4872,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4885,7 +4896,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4900,10 +4911,10 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4912,9 +4923,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4922,13 +4933,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4937,19 +4948,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4962,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4974,13 +4985,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4998,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5013,13 +5024,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5027,7 +5038,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5050,18 +5061,20 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5109,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5124,21 +5137,21 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5146,13 +5159,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5161,15 +5174,17 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5182,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5218,7 +5233,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5233,21 +5248,21 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5261,7 +5276,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5270,17 +5285,15 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5329,7 +5342,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5344,13 +5357,13 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5358,11 +5371,9 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5383,18 +5394,18 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5403,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>79</v>
@@ -5442,13 +5453,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5457,35 +5468,37 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5494,32 +5507,28 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5557,13 +5566,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5572,21 +5581,21 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5597,10 +5606,10 @@
         <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5609,30 +5618,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5670,13 +5681,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5685,21 +5696,21 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5707,31 +5718,35 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5779,28 +5794,28 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5808,18 +5823,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5831,17 +5846,15 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5878,31 +5891,31 @@
         <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -5919,43 +5932,41 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5979,60 +5990,60 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6046,28 +6057,28 @@
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6092,13 +6103,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6116,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6131,13 +6142,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6145,15 +6156,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6171,15 +6182,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6227,7 +6240,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6242,35 +6255,35 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6282,13 +6295,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6338,13 +6351,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6353,13 +6366,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6367,11 +6380,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6393,12 +6406,14 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6447,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6462,13 +6477,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6476,7 +6491,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6502,10 +6517,10 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6556,7 +6571,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6571,13 +6586,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6585,7 +6600,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6596,7 +6611,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6608,18 +6623,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6667,13 +6680,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6682,13 +6695,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6696,7 +6709,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6707,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6719,19 +6732,17 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6780,13 +6791,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6795,13 +6806,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6809,7 +6820,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6820,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6829,19 +6840,23 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6889,28 +6904,28 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>103</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6918,18 +6933,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6941,17 +6956,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6988,31 +7001,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7029,13 +7042,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7054,15 +7065,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>361</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7099,16 +7112,16 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>114</v>
@@ -7129,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7140,7 +7153,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>364</v>
@@ -7251,9 +7264,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7262,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7271,16 +7286,16 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7307,13 +7322,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7331,28 +7346,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7360,7 +7375,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7383,20 +7398,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7420,13 +7431,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7444,7 +7455,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7453,19 +7464,19 @@
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7473,7 +7484,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7490,25 +7501,25 @@
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7533,13 +7544,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7557,7 +7568,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7572,13 +7583,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7586,7 +7597,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7603,24 +7614,26 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>397</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7644,13 +7657,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7668,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7683,13 +7696,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7697,7 +7710,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7720,15 +7733,17 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7792,13 +7807,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>348</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7817,7 +7832,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7829,20 +7844,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7890,13 +7901,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7905,13 +7916,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>412</v>
+        <v>186</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7930,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7930,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7939,19 +7950,23 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7999,28 +8014,28 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>103</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8028,18 +8043,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8051,17 +8066,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8098,31 +8111,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8139,20 +8152,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8164,16 +8175,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>418</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>109</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8211,16 +8222,16 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>114</v>
@@ -8241,7 +8252,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8252,9 +8263,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8269,13 +8282,13 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>422</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>423</v>
@@ -8286,9 +8299,7 @@
       <c r="M55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8300,7 +8311,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8312,13 +8323,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8336,28 +8347,28 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>430</v>
+        <v>114</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8365,7 +8376,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8382,7 +8393,7 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
@@ -8391,15 +8402,17 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8411,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8423,13 +8436,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8447,7 +8460,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8462,13 +8475,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8476,7 +8489,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8499,20 +8512,18 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8524,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8536,13 +8547,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8560,7 +8571,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8575,10 +8586,10 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8600,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8600,7 +8611,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8615,13 +8626,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8633,7 +8648,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8669,13 +8684,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8684,13 +8699,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>455</v>
+        <v>314</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8698,18 +8713,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8724,10 +8739,10 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8742,7 +8757,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8778,13 +8793,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8793,13 +8808,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8807,11 +8822,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8833,14 +8848,12 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8853,7 +8866,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8889,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8904,13 +8917,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8918,11 +8931,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8944,12 +8957,14 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8962,7 +8977,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -8998,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9013,13 +9028,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9027,11 +9042,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9053,10 +9068,10 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9071,7 +9086,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9107,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9122,13 +9137,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9136,11 +9151,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9162,14 +9177,12 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9182,7 +9195,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9218,7 +9231,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9233,13 +9246,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9247,7 +9260,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9270,18 +9283,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9293,7 +9306,7 @@
         <v>79</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>79</v>
@@ -9329,7 +9342,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9344,13 +9357,13 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>348</v>
+        <v>502</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>259</v>
+        <v>503</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9358,7 +9371,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9381,17 +9394,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9404,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9416,13 +9429,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9440,7 +9453,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9455,13 +9468,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>514</v>
+        <v>352</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>515</v>
+        <v>263</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9469,7 +9482,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9492,17 +9505,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>517</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9527,13 +9540,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9551,7 +9564,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9566,13 +9579,13 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9580,7 +9593,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9591,7 +9604,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9600,20 +9613,20 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9662,13 +9675,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9677,21 +9690,21 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9705,7 +9718,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9714,16 +9727,18 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9771,7 +9786,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9786,21 +9801,21 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9811,10 +9826,10 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9823,13 +9838,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>536</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>537</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>102</v>
+        <v>538</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9880,28 +9895,28 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>103</v>
+        <v>535</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>104</v>
+        <v>540</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -9909,7 +9924,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9920,7 +9935,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9932,13 +9947,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9977,35 +9992,37 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -10016,11 +10033,9 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10029,7 +10044,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10041,13 +10056,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>542</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>189</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10086,16 +10101,14 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>114</v>
@@ -10107,7 +10120,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>115</v>
@@ -10127,30 +10140,32 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>107</v>
+        <v>545</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>546</v>
@@ -10158,12 +10173,8 @@
       <c r="L72" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10211,7 +10222,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>548</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10220,7 +10231,7 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>115</v>
@@ -10229,7 +10240,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -10240,11 +10251,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10257,13 +10268,13 @@
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>550</v>
@@ -10271,9 +10282,11 @@
       <c r="L73" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>552</v>
+        <v>202</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10322,7 +10335,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10334,13 +10347,13 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>553</v>
+        <v>186</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
@@ -10351,7 +10364,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10359,10 +10372,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10374,16 +10387,18 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10407,11 +10422,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10429,13 +10446,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10447,10 +10464,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10475,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10466,7 +10483,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10481,18 +10498,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10516,13 +10531,11 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10540,10 +10553,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10558,18 +10571,18 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10583,7 +10596,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10592,16 +10605,18 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10649,7 +10664,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10667,16 +10682,16 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>569</v>
       </c>
@@ -10689,10 +10704,10 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10701,7 +10716,7 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>570</v>
@@ -10709,12 +10724,8 @@
       <c r="L77" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10738,13 +10749,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -10768,7 +10779,7 @@
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -10777,13 +10788,13 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -10791,7 +10802,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10802,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -10814,16 +10825,20 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>574</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10847,13 +10862,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -10871,28 +10886,28 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>103</v>
+        <v>573</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -10900,18 +10915,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -10923,17 +10938,15 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -10970,31 +10983,31 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11011,20 +11024,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11036,15 +11047,17 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>580</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>581</v>
+        <v>108</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11081,16 +11094,16 @@
         <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>114</v>
@@ -11111,7 +11124,7 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11122,9 +11135,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11133,7 +11148,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11142,23 +11157,19 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>141</v>
+        <v>584</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M81" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>587</v>
-      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11206,7 +11217,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>588</v>
+        <v>114</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11218,13 +11229,13 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
@@ -11235,7 +11246,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11246,7 +11257,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11258,19 +11269,19 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11319,13 +11330,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11334,20 +11345,133 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="N83" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM82">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11357,7 +11481,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,19 +623,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
-</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -2209,7 +2196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4257,13 +4244,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>195</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4276,22 +4261,26 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4339,7 +4328,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4348,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>115</v>
@@ -4357,7 +4346,7 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4368,42 +4357,42 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4440,19 +4429,17 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4464,24 +4451,24 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4489,35 +4476,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4553,57 +4536,59 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4615,15 +4600,17 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4660,31 +4647,31 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4701,41 +4688,43 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4759,49 +4748,49 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4812,7 +4801,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4829,25 +4818,25 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4872,13 +4861,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4896,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4911,10 +4900,10 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4923,9 +4912,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4933,13 +4922,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4948,19 +4937,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4973,7 +4962,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4985,13 +4974,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5009,7 +4998,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5024,13 +5013,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5038,7 +5027,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5061,20 +5050,18 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5086,7 +5073,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5122,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5137,21 +5124,21 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5159,13 +5146,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5174,17 +5161,15 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5197,7 +5182,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5233,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5248,21 +5233,21 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5276,7 +5261,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5285,15 +5270,17 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5342,7 +5329,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5357,13 +5344,13 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5371,9 +5358,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5394,18 +5383,18 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5414,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>79</v>
@@ -5453,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5468,37 +5457,35 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5507,27 +5494,31 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="Q30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
@@ -5566,13 +5557,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5581,21 +5572,21 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5606,10 +5597,10 @@
         <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5618,76 +5609,74 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P31" t="s" s="2">
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5696,21 +5685,21 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5718,35 +5707,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5794,28 +5779,28 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5823,18 +5808,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5846,15 +5831,17 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5891,31 +5878,31 @@
         <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -5932,41 +5919,43 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5990,60 +5979,60 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6057,28 +6046,28 @@
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6103,13 +6092,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6142,13 +6131,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6156,15 +6145,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6182,17 +6171,15 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6240,7 +6227,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6255,35 +6242,35 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6295,13 +6282,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6351,13 +6338,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6366,13 +6353,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6380,11 +6367,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6406,14 +6393,12 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6462,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6477,13 +6462,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6491,7 +6476,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6517,10 +6502,10 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6571,7 +6556,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6586,13 +6571,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6600,7 +6585,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6611,7 +6596,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6623,16 +6608,18 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6680,13 +6667,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6695,13 +6682,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6709,7 +6696,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6720,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6732,17 +6719,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6791,13 +6780,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6806,13 +6795,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6820,7 +6809,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6831,7 +6820,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6840,23 +6829,19 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6904,28 +6889,28 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6933,18 +6918,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6956,15 +6941,17 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7001,31 +6988,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7042,11 +7029,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7065,17 +7054,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7112,16 +7099,16 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>114</v>
@@ -7142,7 +7129,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7153,7 +7140,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>364</v>
@@ -7264,11 +7251,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B46" t="s" s="2">
         <v>368</v>
       </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7277,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7286,16 +7271,16 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7322,13 +7307,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7346,28 +7331,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7360,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7398,16 +7383,20 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7431,13 +7420,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7455,7 +7444,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7464,19 +7453,19 @@
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7484,7 +7473,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7501,25 +7490,25 @@
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7544,13 +7533,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7568,7 +7557,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7583,13 +7572,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7597,7 +7586,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7614,26 +7603,24 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>163</v>
+        <v>397</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7657,13 +7644,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7681,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7696,13 +7683,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7710,7 +7697,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7733,17 +7720,15 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7807,13 +7792,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7832,7 +7817,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7844,16 +7829,20 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>257</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7901,13 +7890,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7916,13 +7905,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>263</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7930,7 +7919,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7941,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7950,23 +7939,19 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8014,28 +7999,28 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>103</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8043,18 +8028,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8066,15 +8051,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8111,31 +8098,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8152,18 +8139,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="C54" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8175,16 +8164,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8222,16 +8211,16 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>114</v>
@@ -8252,7 +8241,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8263,11 +8252,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8282,13 +8269,13 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>422</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>423</v>
@@ -8299,7 +8286,9 @@
       <c r="M55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8311,7 +8300,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8323,13 +8312,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8347,28 +8336,28 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>114</v>
+        <v>430</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8365,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8393,7 +8382,7 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
@@ -8402,17 +8391,15 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8424,7 +8411,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8436,13 +8423,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8460,7 +8447,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8475,13 +8462,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8489,7 +8476,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8512,18 +8499,20 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8535,7 +8524,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8547,13 +8536,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8571,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8586,10 +8575,10 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8600,7 +8589,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8611,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8626,17 +8615,13 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8648,7 +8633,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8684,13 +8669,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8699,13 +8684,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>314</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8713,18 +8698,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8739,10 +8724,10 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8757,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8793,13 +8778,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8808,13 +8793,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8822,11 +8807,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8848,12 +8833,14 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8866,7 +8853,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8902,7 +8889,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8917,13 +8904,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8931,11 +8918,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8957,14 +8944,12 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8977,7 +8962,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -9013,7 +8998,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9028,13 +9013,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9042,11 +9027,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9068,10 +9053,10 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9086,7 +9071,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9122,7 +9107,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9137,13 +9122,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9151,11 +9136,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9177,12 +9162,14 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9195,7 +9182,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9231,7 +9218,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9246,13 +9233,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9260,7 +9247,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9283,18 +9270,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9306,7 +9293,7 @@
         <v>79</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>79</v>
@@ -9342,7 +9329,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9357,13 +9344,13 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>502</v>
+        <v>348</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>503</v>
+        <v>259</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9371,7 +9358,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9394,17 +9381,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9417,7 +9404,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9429,13 +9416,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9453,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9468,13 +9455,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>352</v>
+        <v>514</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>263</v>
+        <v>515</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9482,7 +9469,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9505,17 +9492,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9540,31 +9527,31 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9579,13 +9566,13 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9593,7 +9580,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9604,7 +9591,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9613,20 +9600,20 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9675,13 +9662,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9690,21 +9677,21 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9718,7 +9705,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9727,18 +9714,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9786,7 +9771,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9801,21 +9786,21 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9826,10 +9811,10 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9838,13 +9823,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>536</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>537</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
+        <v>102</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9895,28 +9880,28 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>535</v>
+        <v>103</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>540</v>
+        <v>104</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -9924,7 +9909,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9935,7 +9920,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9947,13 +9932,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9992,37 +9977,35 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -10033,9 +10016,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10044,7 +10029,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10056,13 +10041,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>107</v>
+        <v>541</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>188</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>189</v>
+        <v>543</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10101,14 +10086,16 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AB71" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>114</v>
@@ -10120,7 +10107,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>115</v>
@@ -10140,32 +10127,30 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B72" t="s" s="2">
         <v>544</v>
       </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>545</v>
+        <v>107</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>546</v>
@@ -10173,8 +10158,12 @@
       <c r="L72" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="M72" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10222,7 +10211,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>114</v>
+        <v>548</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10231,7 +10220,7 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>115</v>
@@ -10240,7 +10229,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -10251,11 +10240,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10268,13 +10257,13 @@
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>550</v>
@@ -10282,11 +10271,9 @@
       <c r="L73" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>202</v>
+        <v>552</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10322,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10347,13 +10334,13 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>186</v>
+        <v>553</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
@@ -10364,7 +10351,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10372,10 +10359,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10387,18 +10374,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>556</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10422,13 +10407,11 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10446,13 +10429,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10464,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10475,7 +10458,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10483,7 +10466,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10498,16 +10481,18 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10531,11 +10516,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10553,10 +10540,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10571,18 +10558,18 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10596,7 +10583,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10605,18 +10592,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10664,7 +10649,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10682,16 +10667,16 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>569</v>
       </c>
@@ -10704,10 +10689,10 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10716,7 +10701,7 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>570</v>
@@ -10724,8 +10709,12 @@
       <c r="L77" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="M77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10749,13 +10738,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -10779,7 +10768,7 @@
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -10788,13 +10777,13 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -10802,7 +10791,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10813,7 +10802,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -10825,20 +10814,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>574</v>
+        <v>101</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10862,13 +10847,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -10886,28 +10871,28 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>573</v>
+        <v>103</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>579</v>
+        <v>104</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -10915,18 +10900,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -10938,15 +10923,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -10983,31 +10970,31 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11024,18 +11011,20 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="C80" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11047,17 +11036,15 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11094,16 +11081,16 @@
         <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>114</v>
@@ -11124,7 +11111,7 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11135,11 +11122,9 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B81" t="s" s="2">
         <v>583</v>
       </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11148,7 +11133,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11157,19 +11142,23 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11217,7 +11206,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>114</v>
+        <v>588</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11229,13 +11218,13 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
@@ -11246,7 +11235,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11257,7 +11246,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11269,19 +11258,19 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11330,13 +11319,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11345,133 +11334,20 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11481,7 +11357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2206,16 +2206,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2224,24 +2224,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.23828125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="93.2421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
